--- a/Ütemterv.xlsx
+++ b/Ütemterv.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bauer.balint.2022i_b\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarfas.erik.2022i_ba\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB185023-F43E-4AA4-9EF0-D3F3AC5570A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A41C3F1-3E70-4076-969B-959443586F58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{CB60BDD0-792E-4B74-B1A1-D85C4A7FA4A4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{CB60BDD0-792E-4B74-B1A1-D85C4A7FA4A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Feladat kezdete: 2025.10.16</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Plusz funkció kitalálása</t>
   </si>
   <si>
-    <t>Specifikávió módosítása</t>
-  </si>
-  <si>
     <t>Bérlő Osztály</t>
   </si>
   <si>
@@ -76,13 +73,34 @@
   </si>
   <si>
     <t>Kész szoftver</t>
+  </si>
+  <si>
+    <t>Specifikáció módosítása</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,19 +109,139 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB44C22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -112,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -121,12 +259,68 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFB44C22"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -136,6 +330,883 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Összekötő: szögletes 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{324BBB4C-613F-4C9E-97DC-F0B778246E9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2449286" y="176893"/>
+          <a:ext cx="598714" cy="517071"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>16328</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>111579</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Összekötő: szögletes 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{108807FA-4442-4009-8BA0-2803544F4A44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5527221" y="1635579"/>
+          <a:ext cx="582386" cy="378278"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>435428</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>612321</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Összekötő: szögletes 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D70B5CA-404B-4819-AFB3-A58F49FB748D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5320392" y="1265463"/>
+          <a:ext cx="204108" cy="176893"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 96666"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Összekötő: szögletes 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B78B1AF-F52C-4D66-A2B1-369AEECDD832}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6749143" y="1455964"/>
+          <a:ext cx="598714" cy="517071"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Összekötő: szögletes 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D33D7B97-2F63-485F-8F69-1A7DE3D02AD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8089047" y="2971158"/>
+          <a:ext cx="462643" cy="302561"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100865"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Összekötő: szögletes 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E71F70F-A18F-448E-9CC6-62F2203D547D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7062107" y="1605642"/>
+          <a:ext cx="312964" cy="40822"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2174"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Összekötő: szögletes 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FF7ABE4-FF67-4BF9-9922-3A5891C91B02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8572500" y="2394857"/>
+          <a:ext cx="598714" cy="408214"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>462645</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>40825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>2720</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>70757</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Összekötő: szögletes 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE922782-72C9-49A9-9BE3-745F86E9BA52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9613449" y="2945949"/>
+          <a:ext cx="220432" cy="152397"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99383"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>489859</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>27217</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>2718</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>70755</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Összekötő: szögletes 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF9580F2-B22B-4DFA-A3D9-A2B9107E518C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="10844895" y="3333752"/>
+          <a:ext cx="234038" cy="125181"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 102327"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>478974</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>2725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>604155</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>46263</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Összekötő: szögletes 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF6D9BF5-8D19-4B61-B4EF-A869E7CFF080}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="12058653" y="3690260"/>
+          <a:ext cx="234038" cy="125181"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 102327"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>489858</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>2717</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57145</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Összekötő: szögletes 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A79D1712-E56B-4AAA-B2E4-C109A3DE4473}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="13906501" y="4082142"/>
+          <a:ext cx="234038" cy="125181"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 102327"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>601432</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>43539</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Összekötő: szögletes 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B9DE361-0050-427D-A371-989875165BA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="15729859" y="4449536"/>
+          <a:ext cx="234038" cy="125181"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 102327"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>476252</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>601433</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>70753</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Összekötő: szögletes 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51F92F51-AD22-4012-B0CF-83CFEE3F4302}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="17566824" y="4857750"/>
+          <a:ext cx="234038" cy="125181"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 102327"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>492581</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57152</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>5441</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>100690</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Összekötő: szögletes 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03D1C482-2612-4FF3-9823-F24716D94499}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="18807796" y="5268687"/>
+          <a:ext cx="234038" cy="125181"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 102327"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>40823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>601432</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>84361</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Összekötő: szögletes 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D62946CE-448A-48D4-BCFE-82C409B4C5C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="20016109" y="5633358"/>
+          <a:ext cx="234038" cy="125181"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 102327"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>489858</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>2718</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>70753</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Összekötő: szögletes 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBD03492-90A0-432F-989A-66796F3F0024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="21254359" y="6000750"/>
+          <a:ext cx="234038" cy="125181"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 102327"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -435,158 +1506,364 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E5B351-7876-4F66-B6A3-505C40286377}">
-  <dimension ref="A1:AK33"/>
+  <dimension ref="C2:AM38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="2" spans="3:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="3:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="12"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="24"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+    </row>
+    <row r="4" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="H4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="24"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+    </row>
+    <row r="5" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="H5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="24"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+    </row>
+    <row r="6" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F4" s="2" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="H6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="24"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+    </row>
+    <row r="7" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="H7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="24"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+    </row>
+    <row r="8" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="H8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="24"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+    </row>
+    <row r="9" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="H9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I6" s="2" t="s">
+      <c r="I9" s="4"/>
+      <c r="L9" s="15"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="24"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+    </row>
+    <row r="10" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="H10" s="16"/>
+      <c r="I10" s="1"/>
+      <c r="L10" s="15"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="24"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+    </row>
+    <row r="11" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="H11" s="15"/>
+      <c r="K11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J8" s="2" t="s">
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="24"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+    </row>
+    <row r="12" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="H12" s="15"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="17"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="24"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+    </row>
+    <row r="13" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="H13" s="15"/>
+      <c r="L13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M9" s="2" t="s">
+      <c r="M13" s="5"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="24"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+    </row>
+    <row r="14" spans="3:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="O14" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="P14" s="23"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="W14" s="12"/>
+    </row>
+    <row r="15" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="H15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="24"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+    </row>
+    <row r="16" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="H16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="O16" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="P16" s="23"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+    </row>
+    <row r="17" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="24"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+    </row>
+    <row r="18" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="O18" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="23"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+    </row>
+    <row r="19" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="24"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+    </row>
+    <row r="20" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="24"/>
+      <c r="R20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S20" s="6"/>
+    </row>
+    <row r="21" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="24"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+    </row>
+    <row r="22" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="24"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="T22" s="14"/>
+    </row>
+    <row r="23" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="24"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+    </row>
+    <row r="24" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="U24" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="24"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+    </row>
+    <row r="26" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="24"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="W26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+    </row>
+    <row r="27" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="24"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+    </row>
+    <row r="28" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="24"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="Z28" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q15" s="2"/>
-    </row>
-    <row r="17" spans="17:35" x14ac:dyDescent="0.25">
-      <c r="Q17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R17" s="2"/>
-    </row>
-    <row r="19" spans="17:35" x14ac:dyDescent="0.25">
-      <c r="S19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-    </row>
-    <row r="21" spans="17:35" x14ac:dyDescent="0.25">
-      <c r="U21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-    </row>
-    <row r="23" spans="17:35" x14ac:dyDescent="0.25">
-      <c r="X23" s="2" t="s">
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+    </row>
+    <row r="29" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="24"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+    </row>
+    <row r="30" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="24"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="AC30" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-    </row>
-    <row r="25" spans="17:35" x14ac:dyDescent="0.25">
-      <c r="AA25" s="2" t="s">
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+    </row>
+    <row r="31" spans="8:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P31" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="8:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O32" s="20"/>
+      <c r="P32" s="18"/>
+      <c r="AF32" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AB25" s="2"/>
-      <c r="AC25" s="2"/>
-    </row>
-    <row r="27" spans="17:35" x14ac:dyDescent="0.25">
-      <c r="AD27" s="2" t="s">
+      <c r="AG32" s="11"/>
+    </row>
+    <row r="34" spans="34:39" x14ac:dyDescent="0.25">
+      <c r="AH34" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AE27" s="2"/>
-    </row>
-    <row r="29" spans="17:35" x14ac:dyDescent="0.25">
-      <c r="AF29" s="2" t="s">
+      <c r="AI34" s="9"/>
+    </row>
+    <row r="36" spans="34:39" x14ac:dyDescent="0.25">
+      <c r="AJ36" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AG29" s="2"/>
-    </row>
-    <row r="31" spans="17:35" x14ac:dyDescent="0.25">
-      <c r="AH31" s="2" t="s">
+      <c r="AK36" s="4"/>
+    </row>
+    <row r="38" spans="34:39" x14ac:dyDescent="0.25">
+      <c r="AL38" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AI31" s="2"/>
-    </row>
-    <row r="33" spans="36:37" x14ac:dyDescent="0.25">
-      <c r="AJ33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK33" s="2"/>
+      <c r="AM38" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AA25:AC25"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="AF29:AG29"/>
-    <mergeCell ref="AH31:AI31"/>
-    <mergeCell ref="AJ33:AK33"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="AH34:AI34"/>
+    <mergeCell ref="AJ36:AK36"/>
+    <mergeCell ref="AL38:AM38"/>
+    <mergeCell ref="W26:Y26"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="Z28:AB28"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="C6:F7"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="S22:T22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Ütemterv.xlsx
+++ b/Ütemterv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarfas.erik.2022i_ba\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A41C3F1-3E70-4076-969B-959443586F58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A73521-509B-45F0-ABD3-0A06AAA466C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{CB60BDD0-792E-4B74-B1A1-D85C4A7FA4A4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Feladat kezdete: 2025.10.16</t>
   </si>
@@ -78,29 +78,62 @@
     <t>Specifikáció módosítása</t>
   </si>
   <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>Keresési funkció</t>
+  </si>
+  <si>
+    <t>Törlés</t>
+  </si>
+  <si>
+    <t>Módosítás</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +161,23 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -209,7 +259,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -236,65 +286,155 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
+      <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="dotted">
         <color auto="1"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -303,13 +443,125 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -336,16 +588,71 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>403268</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>3</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>2723</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>70751</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Összekötő: szögletes 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE922782-72C9-49A9-9BE3-745F86E9BA52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="10723054" y="3866282"/>
+          <a:ext cx="261248" cy="208065"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100189"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
+      <xdr:rowOff>189808</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>598714</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3229</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:rowOff>96864</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -360,8 +667,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2449286" y="176893"/>
-          <a:ext cx="598714" cy="517071"/>
+          <a:off x="3661475" y="1161681"/>
+          <a:ext cx="613474" cy="478556"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -390,15 +697,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>16328</xdr:colOff>
+      <xdr:colOff>6457</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>111579</xdr:rowOff>
+      <xdr:rowOff>93636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>598714</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9686</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:rowOff>103322</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -413,8 +720,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5527221" y="1635579"/>
-          <a:ext cx="582386" cy="378278"/>
+          <a:off x="5498669" y="1637009"/>
+          <a:ext cx="613475" cy="390686"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -443,15 +750,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>435428</xdr:colOff>
+      <xdr:colOff>429437</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>108856</xdr:rowOff>
+      <xdr:rowOff>3</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>612321</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2078</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:rowOff>99862</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -466,12 +773,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5320392" y="1265463"/>
-          <a:ext cx="204108" cy="176893"/>
+          <a:off x="6478158" y="2168613"/>
+          <a:ext cx="290359" cy="182886"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 96666"/>
+            <a:gd name="adj1" fmla="val 100040"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -525,7 +832,9 @@
           <a:ext cx="598714" cy="517071"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50400"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -551,9 +860,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>302559</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:colOff>313592</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
@@ -574,12 +883,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="8089047" y="2971158"/>
-          <a:ext cx="462643" cy="302561"/>
+          <a:off x="8155076" y="2967193"/>
+          <a:ext cx="462642" cy="296010"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 100865"/>
+            <a:gd name="adj1" fmla="val 100045"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -606,15 +915,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>326571</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>81642</xdr:rowOff>
+      <xdr:colOff>307731</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123092</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
+      <xdr:colOff>2381</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:rowOff>121444</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -629,12 +938,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7062107" y="1605642"/>
-          <a:ext cx="312964" cy="40822"/>
+          <a:off x="8232531" y="2428142"/>
+          <a:ext cx="304250" cy="188852"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -2174"/>
+            <a:gd name="adj1" fmla="val 3042"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -660,16 +969,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>610246</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>598714</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>3229</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:rowOff>103322</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -684,121 +993,11 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8572500" y="2394857"/>
-          <a:ext cx="598714" cy="408214"/>
+          <a:off x="9763932" y="3362809"/>
+          <a:ext cx="613475" cy="389072"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>462645</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>40825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>2720</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>70757</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Összekötő: szögletes 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE922782-72C9-49A9-9BE3-745F86E9BA52}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="9613449" y="2945949"/>
-          <a:ext cx="220432" cy="152397"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 99383"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>489859</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>27217</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>2718</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>70755</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Összekötő: szögletes 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF9580F2-B22B-4DFA-A3D9-A2B9107E518C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="10844895" y="3333752"/>
-          <a:ext cx="234038" cy="125181"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 102327"/>
-          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -824,15 +1023,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>478974</xdr:colOff>
+      <xdr:colOff>478973</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>2725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>604155</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>46263</xdr:rowOff>
+      <xdr:rowOff>103325</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -847,12 +1046,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="12058653" y="3690260"/>
-          <a:ext cx="234038" cy="125181"/>
+          <a:off x="13214222" y="4683696"/>
+          <a:ext cx="291100" cy="131275"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 102327"/>
+            <a:gd name="adj1" fmla="val 99913"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -879,15 +1078,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>489858</xdr:colOff>
+      <xdr:colOff>400053</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:rowOff>5</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>2717</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>607220</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>57145</xdr:rowOff>
+      <xdr:rowOff>97637</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -902,12 +1101,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="13906501" y="4082142"/>
-          <a:ext cx="234038" cy="125181"/>
+          <a:off x="14989971" y="5022062"/>
+          <a:ext cx="288132" cy="207167"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 102327"/>
+            <a:gd name="adj1" fmla="val 100413"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -934,15 +1133,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>476251</xdr:colOff>
+      <xdr:colOff>485779</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>601432</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>5</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>43539</xdr:rowOff>
+      <xdr:rowOff>95253</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -957,13 +1156,172 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="15729859" y="4449536"/>
-          <a:ext cx="234038" cy="125181"/>
+          <a:off x="16864015" y="5443539"/>
+          <a:ext cx="285753" cy="123826"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 102327"/>
+            <a:gd name="adj1" fmla="val 100834"/>
           </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>2876</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>6469</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>3594</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>7189</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Egyenes összekötő nyíllal 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE461C93-2C86-4ACE-BD84-671C26BBF75F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11612593" y="4991818"/>
+          <a:ext cx="718" cy="191220"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>719</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>4312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1437</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>5032</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Egyenes összekötő nyíllal 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CFAB598-FC00-4BCF-B79E-6D99A5D7FABF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11610436" y="4608661"/>
+          <a:ext cx="718" cy="191220"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>2157</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>5750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>2875</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>6470</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Egyenes összekötő nyíllal 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EAA723B-8797-4AFC-9AE0-C3D6B99CA1C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11611874" y="4229099"/>
+          <a:ext cx="718" cy="191220"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -989,22 +1347,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>476252</xdr:colOff>
+      <xdr:colOff>488161</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
+      <xdr:rowOff>2382</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>601433</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>2387</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>70753</xdr:rowOff>
+      <xdr:rowOff>88110</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="Összekötő: szögletes 36">
+        <xdr:cNvPr id="95" name="Összekötő: szögletes 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51F92F51-AD22-4012-B0CF-83CFEE3F4302}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BEA8C82-C5E7-4C00-AAA6-583292CC521D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1012,12 +1370,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="17566824" y="4857750"/>
-          <a:ext cx="234038" cy="125181"/>
+          <a:off x="18695197" y="5826921"/>
+          <a:ext cx="285753" cy="123826"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 102327"/>
+            <a:gd name="adj1" fmla="val 100834"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -1044,22 +1402,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>492581</xdr:colOff>
+      <xdr:colOff>488162</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>57152</xdr:rowOff>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>5441</xdr:colOff>
+      <xdr:colOff>2388</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>100690</xdr:rowOff>
+      <xdr:rowOff>95255</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="Összekötő: szögletes 37">
+        <xdr:cNvPr id="96" name="Összekötő: szögletes 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03D1C482-2612-4FF3-9823-F24716D94499}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04F558D1-CDC2-4799-BF77-6FD74D12C6E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1067,12 +1425,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="18807796" y="5268687"/>
-          <a:ext cx="234038" cy="125181"/>
+          <a:off x="19914398" y="6224591"/>
+          <a:ext cx="285753" cy="123826"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 102327"/>
+            <a:gd name="adj1" fmla="val 100834"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -1099,22 +1457,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>476251</xdr:colOff>
+      <xdr:colOff>488157</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>40823</xdr:rowOff>
+      <xdr:rowOff>2382</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>601432</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>2383</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>84361</xdr:rowOff>
+      <xdr:rowOff>97635</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Összekötő: szögletes 38">
+        <xdr:cNvPr id="97" name="Összekötő: szögletes 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D62946CE-448A-48D4-BCFE-82C409B4C5C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDEB8579-FCAF-4F3A-8C44-BFFD34763A6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1122,12 +1480,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="20016109" y="5633358"/>
-          <a:ext cx="234038" cy="125181"/>
+          <a:off x="21133593" y="6607971"/>
+          <a:ext cx="285753" cy="123826"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 102327"/>
+            <a:gd name="adj1" fmla="val 100834"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -1154,22 +1512,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>489858</xdr:colOff>
+      <xdr:colOff>488158</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>2718</xdr:colOff>
+      <xdr:colOff>2384</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>70753</xdr:rowOff>
+      <xdr:rowOff>95255</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="Összekötő: szögletes 39">
+        <xdr:cNvPr id="98" name="Összekötő: szögletes 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBD03492-90A0-432F-989A-66796F3F0024}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90E5EC9A-A15B-4D61-826C-966B825560FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1177,12 +1535,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="21254359" y="6000750"/>
-          <a:ext cx="234038" cy="125181"/>
+          <a:off x="22352794" y="6986591"/>
+          <a:ext cx="285753" cy="123826"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 102327"/>
+            <a:gd name="adj1" fmla="val 100834"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -1506,344 +1864,855 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E5B351-7876-4F66-B6A3-505C40286377}">
-  <dimension ref="C2:AM38"/>
+  <dimension ref="C2:AM41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE43" sqref="AE43:AE45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="3:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H2" s="18" t="s">
+    <row r="2" spans="3:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="5"/>
+      <c r="M2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="5"/>
+      <c r="P2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="5"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="W2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM2" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="3:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H3" s="8"/>
+      <c r="I3" s="3"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="13"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="10"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="15"/>
+      <c r="AB3" s="3"/>
+      <c r="AE3" s="10"/>
+      <c r="AG3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AM3" s="3"/>
+    </row>
+    <row r="4" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="H4" s="8"/>
+      <c r="I4" s="3"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="3"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="10"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="15"/>
+      <c r="AB4" s="3"/>
+      <c r="AE4" s="10"/>
+      <c r="AG4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AM4" s="3"/>
+    </row>
+    <row r="5" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="H5" s="8"/>
+      <c r="I5" s="3"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="3"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="10"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="15"/>
+      <c r="AB5" s="3"/>
+      <c r="AE5" s="10"/>
+      <c r="AG5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AM5" s="3"/>
+    </row>
+    <row r="6" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C6" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="43"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="3"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="3"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="10"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="15"/>
+      <c r="AB6" s="3"/>
+      <c r="AE6" s="10"/>
+      <c r="AG6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AM6" s="3"/>
+    </row>
+    <row r="7" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="46"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="3"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="3"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="10"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="15"/>
+      <c r="AB7" s="3"/>
+      <c r="AE7" s="10"/>
+      <c r="AG7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AM7" s="3"/>
+    </row>
+    <row r="8" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="H8" s="8"/>
+      <c r="I8" s="3"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="3"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="10"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="15"/>
+      <c r="AB8" s="3"/>
+      <c r="AE8" s="10"/>
+      <c r="AG8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AM8" s="3"/>
+    </row>
+    <row r="9" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="H9" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="3"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="10"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="15"/>
+      <c r="AB9" s="3"/>
+      <c r="AE9" s="10"/>
+      <c r="AG9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AM9" s="3"/>
+    </row>
+    <row r="10" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="H10" s="9"/>
+      <c r="I10" s="4"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="3"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="10"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="15"/>
+      <c r="AB10" s="3"/>
+      <c r="AE10" s="10"/>
+      <c r="AG10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AM10" s="3"/>
+    </row>
+    <row r="11" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="H11" s="8"/>
+      <c r="I11" s="3"/>
+      <c r="K11" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="40"/>
+      <c r="M11" s="39"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="10"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="15"/>
+      <c r="AB11" s="3"/>
+      <c r="AE11" s="10"/>
+      <c r="AG11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AM11" s="3"/>
+    </row>
+    <row r="12" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="H12" s="8"/>
+      <c r="I12" s="3"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="3"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="10"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="15"/>
+      <c r="AB12" s="3"/>
+      <c r="AE12" s="10"/>
+      <c r="AG12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AM12" s="3"/>
+    </row>
+    <row r="13" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="H13" s="8"/>
+      <c r="I13" s="3"/>
+      <c r="L13" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="39"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="10"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="15"/>
+      <c r="AB13" s="3"/>
+      <c r="AE13" s="10"/>
+      <c r="AG13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AM13" s="3"/>
+    </row>
+    <row r="14" spans="3:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H14" s="8"/>
+      <c r="I14" s="3"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="3"/>
+      <c r="O14" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="P14" s="47"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="3"/>
+      <c r="W14" s="13"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="15"/>
+      <c r="AB14" s="3"/>
+      <c r="AE14" s="10"/>
+      <c r="AG14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AM14" s="3"/>
+    </row>
+    <row r="15" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="H15" s="8"/>
+      <c r="I15" s="3"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="3"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="10"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="15"/>
+      <c r="AB15" s="3"/>
+      <c r="AE15" s="10"/>
+      <c r="AG15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AM15" s="3"/>
+    </row>
+    <row r="16" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="H16" s="8"/>
+      <c r="I16" s="3"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="3"/>
+      <c r="O16" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="P16" s="47"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="15"/>
+      <c r="AB16" s="3"/>
+      <c r="AE16" s="10"/>
+      <c r="AG16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AM16" s="3"/>
+    </row>
+    <row r="17" spans="8:39" x14ac:dyDescent="0.25">
+      <c r="H17" s="8"/>
+      <c r="I17" s="3"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="3"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="10"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="15"/>
+      <c r="AB17" s="3"/>
+      <c r="AE17" s="10"/>
+      <c r="AG17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AM17" s="3"/>
+    </row>
+    <row r="18" spans="8:39" x14ac:dyDescent="0.25">
+      <c r="H18" s="8"/>
+      <c r="I18" s="3"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="3"/>
+      <c r="O18" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="47"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="15"/>
+      <c r="AB18" s="3"/>
+      <c r="AE18" s="10"/>
+      <c r="AG18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AM18" s="3"/>
+    </row>
+    <row r="19" spans="8:39" x14ac:dyDescent="0.25">
+      <c r="H19" s="8"/>
+      <c r="I19" s="3"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="3"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="10"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="15"/>
+      <c r="AB19" s="3"/>
+      <c r="AE19" s="10"/>
+      <c r="AG19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AM19" s="3"/>
+    </row>
+    <row r="20" spans="8:39" x14ac:dyDescent="0.25">
+      <c r="H20" s="8"/>
+      <c r="I20" s="3"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="3"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="10"/>
+      <c r="R20" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="S20" s="36"/>
+      <c r="T20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="15"/>
+      <c r="AB20" s="3"/>
+      <c r="AE20" s="10"/>
+      <c r="AG20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AM20" s="3"/>
+    </row>
+    <row r="21" spans="8:39" x14ac:dyDescent="0.25">
+      <c r="H21" s="8"/>
+      <c r="I21" s="3"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="3"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="10"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="15"/>
+      <c r="AB21" s="3"/>
+      <c r="AE21" s="10"/>
+      <c r="AG21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AM21" s="3"/>
+    </row>
+    <row r="22" spans="8:39" x14ac:dyDescent="0.25">
+      <c r="H22" s="8"/>
+      <c r="I22" s="3"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="3"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="10"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="T22" s="34"/>
+      <c r="W22" s="3"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="15"/>
+      <c r="AB22" s="3"/>
+      <c r="AE22" s="10"/>
+      <c r="AG22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AM22" s="3"/>
+    </row>
+    <row r="23" spans="8:39" x14ac:dyDescent="0.25">
+      <c r="H23" s="8"/>
+      <c r="I23" s="3"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="3"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="10"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="15"/>
+      <c r="AB23" s="3"/>
+      <c r="AE23" s="10"/>
+      <c r="AG23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AM23" s="3"/>
+    </row>
+    <row r="24" spans="8:39" x14ac:dyDescent="0.25">
+      <c r="H24" s="8"/>
+      <c r="I24" s="3"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="3"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="T24" s="34"/>
+      <c r="U24" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="V24" s="31"/>
+      <c r="W24" s="32"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="15"/>
+      <c r="AB24" s="3"/>
+      <c r="AE24" s="10"/>
+      <c r="AG24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AM24" s="3"/>
+    </row>
+    <row r="25" spans="8:39" x14ac:dyDescent="0.25">
+      <c r="H25" s="8"/>
+      <c r="I25" s="3"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="3"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="10"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="15"/>
+      <c r="AB25" s="3"/>
+      <c r="AE25" s="10"/>
+      <c r="AG25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AM25" s="3"/>
+    </row>
+    <row r="26" spans="8:39" x14ac:dyDescent="0.25">
+      <c r="H26" s="8"/>
+      <c r="I26" s="3"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="3"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="10"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="T26" s="34"/>
+      <c r="W26" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="48"/>
+      <c r="Z26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AE26" s="10"/>
+      <c r="AG26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AM26" s="3"/>
+    </row>
+    <row r="27" spans="8:39" x14ac:dyDescent="0.25">
+      <c r="H27" s="8"/>
+      <c r="I27" s="3"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="3"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="10"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="15"/>
+      <c r="AB27" s="3"/>
+      <c r="AE27" s="10"/>
+      <c r="AG27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AM27" s="3"/>
+    </row>
+    <row r="28" spans="8:39" x14ac:dyDescent="0.25">
+      <c r="H28" s="8"/>
+      <c r="I28" s="3"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="3"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="10"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="T28" s="34"/>
+      <c r="W28" s="3"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="27"/>
+      <c r="AE28" s="10"/>
+      <c r="AG28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AM28" s="3"/>
+    </row>
+    <row r="29" spans="8:39" x14ac:dyDescent="0.25">
+      <c r="H29" s="8"/>
+      <c r="I29" s="3"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="3"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="10"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="15"/>
+      <c r="AB29" s="3"/>
+      <c r="AE29" s="10"/>
+      <c r="AG29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AM29" s="3"/>
+    </row>
+    <row r="30" spans="8:39" x14ac:dyDescent="0.25">
+      <c r="H30" s="8"/>
+      <c r="I30" s="3"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="3"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="10"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="15"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD30" s="26"/>
+      <c r="AE30" s="49"/>
+      <c r="AG30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AM30" s="3"/>
+    </row>
+    <row r="31" spans="8:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="P31" s="14"/>
+      <c r="T31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="15"/>
+      <c r="AB31" s="3"/>
+      <c r="AE31" s="10"/>
+      <c r="AG31" s="3"/>
+      <c r="AI31" s="16"/>
+      <c r="AK31" s="3"/>
+      <c r="AM31" s="3"/>
+    </row>
+    <row r="32" spans="8:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="14"/>
+      <c r="T32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="15"/>
+      <c r="AB32" s="3"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG32" s="23"/>
+      <c r="AH32" s="23"/>
+      <c r="AI32" s="23"/>
+      <c r="AJ32" s="24"/>
+      <c r="AK32" s="3"/>
+      <c r="AM32" s="3"/>
+    </row>
+    <row r="33" spans="9:39" x14ac:dyDescent="0.25">
+      <c r="I33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="P33" s="10"/>
+      <c r="T33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="15"/>
+      <c r="AB33" s="3"/>
+      <c r="AE33" s="10"/>
+      <c r="AG33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AM33" s="3"/>
+    </row>
+    <row r="34" spans="9:39" x14ac:dyDescent="0.25">
+      <c r="I34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="P34" s="10"/>
+      <c r="T34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="15"/>
+      <c r="AB34" s="3"/>
+      <c r="AE34" s="10"/>
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI34" s="22"/>
+      <c r="AK34" s="3"/>
+      <c r="AM34" s="3"/>
+    </row>
+    <row r="35" spans="9:39" x14ac:dyDescent="0.25">
+      <c r="I35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="P35" s="10"/>
+      <c r="T35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="15"/>
+      <c r="AB35" s="3"/>
+      <c r="AE35" s="10"/>
+      <c r="AG35" s="3"/>
+      <c r="AI35" s="3"/>
+      <c r="AK35" s="3"/>
+      <c r="AM35" s="3"/>
+    </row>
+    <row r="36" spans="9:39" x14ac:dyDescent="0.25">
+      <c r="I36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="P36" s="10"/>
+      <c r="T36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="15"/>
+      <c r="AB36" s="3"/>
+      <c r="AE36" s="10"/>
+      <c r="AG36" s="3"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK36" s="20"/>
+      <c r="AM36" s="3"/>
+    </row>
+    <row r="37" spans="9:39" x14ac:dyDescent="0.25">
+      <c r="I37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="P37" s="10"/>
+      <c r="T37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="15"/>
+      <c r="AB37" s="3"/>
+      <c r="AE37" s="10"/>
+      <c r="AG37" s="3"/>
+      <c r="AI37" s="3"/>
+      <c r="AK37" s="3"/>
+      <c r="AM37" s="3"/>
+    </row>
+    <row r="38" spans="9:39" x14ac:dyDescent="0.25">
+      <c r="I38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="P38" s="10"/>
+      <c r="T38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="15"/>
+      <c r="AB38" s="3"/>
+      <c r="AE38" s="10"/>
+      <c r="AG38" s="3"/>
+      <c r="AI38" s="3"/>
+      <c r="AK38" s="8"/>
+      <c r="AL38" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM38" s="18"/>
+    </row>
+    <row r="39" spans="9:39" x14ac:dyDescent="0.25">
+      <c r="I39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="P39" s="10"/>
+      <c r="T39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="15"/>
+      <c r="AB39" s="3"/>
+      <c r="AE39" s="10"/>
+      <c r="AG39" s="3"/>
+      <c r="AI39" s="3"/>
+      <c r="AK39" s="3"/>
+      <c r="AM39" s="3"/>
+    </row>
+    <row r="40" spans="9:39" x14ac:dyDescent="0.25">
+      <c r="I40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="P40" s="10"/>
+      <c r="T40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="15"/>
+      <c r="AB40" s="3"/>
+      <c r="AE40" s="10"/>
+      <c r="AG40" s="3"/>
+      <c r="AI40" s="3"/>
+      <c r="AK40" s="3"/>
+      <c r="AM40" s="3"/>
+    </row>
+    <row r="41" spans="9:39" x14ac:dyDescent="0.25">
+      <c r="P41" s="12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="3:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="12"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="24"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-    </row>
-    <row r="4" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="H4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="24"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-    </row>
-    <row r="5" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="H5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="24"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-    </row>
-    <row r="6" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C6" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="H6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="24"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-    </row>
-    <row r="7" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="H7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="24"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-    </row>
-    <row r="8" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="H8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="24"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-    </row>
-    <row r="9" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="H9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="L9" s="15"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="24"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-    </row>
-    <row r="10" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="H10" s="16"/>
-      <c r="I10" s="1"/>
-      <c r="L10" s="15"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="24"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-    </row>
-    <row r="11" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="H11" s="15"/>
-      <c r="K11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="24"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-    </row>
-    <row r="12" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="H12" s="15"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="17"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="24"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-    </row>
-    <row r="13" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="H13" s="15"/>
-      <c r="L13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M13" s="5"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="24"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-    </row>
-    <row r="14" spans="3:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="O14" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="P14" s="23"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="W14" s="12"/>
-    </row>
-    <row r="15" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="H15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="24"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-    </row>
-    <row r="16" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="H16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="O16" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="P16" s="23"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-    </row>
-    <row r="17" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="24"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-    </row>
-    <row r="18" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="O18" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="23"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-    </row>
-    <row r="19" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="24"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-    </row>
-    <row r="20" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="24"/>
-      <c r="R20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="S20" s="6"/>
-    </row>
-    <row r="21" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="24"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-    </row>
-    <row r="22" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="24"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="T22" s="14"/>
-    </row>
-    <row r="23" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="24"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-    </row>
-    <row r="24" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="U24" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-    </row>
-    <row r="25" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="24"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-    </row>
-    <row r="26" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="24"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="W26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-    </row>
-    <row r="27" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="24"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-    </row>
-    <row r="28" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="24"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="Z28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA28" s="7"/>
-      <c r="AB28" s="7"/>
-    </row>
-    <row r="29" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="24"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-    </row>
-    <row r="30" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="H30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="24"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="AC30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD30" s="7"/>
-      <c r="AE30" s="7"/>
-    </row>
-    <row r="31" spans="8:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P31" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="8:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O32" s="20"/>
-      <c r="P32" s="18"/>
-      <c r="AF32" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG32" s="11"/>
-    </row>
-    <row r="34" spans="34:39" x14ac:dyDescent="0.25">
-      <c r="AH34" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI34" s="9"/>
-    </row>
-    <row r="36" spans="34:39" x14ac:dyDescent="0.25">
-      <c r="AJ36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK36" s="4"/>
-    </row>
-    <row r="38" spans="34:39" x14ac:dyDescent="0.25">
-      <c r="AL38" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM38" s="10"/>
+      <c r="T41" s="12"/>
+      <c r="Y41" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE41" s="12" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="20">
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="AF32:AJ32"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="C6:F7"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="L13:M13"/>
     <mergeCell ref="AH34:AI34"/>
     <mergeCell ref="AJ36:AK36"/>
     <mergeCell ref="AL38:AM38"/>
@@ -1851,16 +2720,6 @@
     <mergeCell ref="U24:W24"/>
     <mergeCell ref="Z28:AB28"/>
     <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="C6:F7"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="S22:T22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
